--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-514879.6276669079</v>
+        <v>-517447.8279462743</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>185.7602497462782</v>
+        <v>355.8127254646765</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3517755722035</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7619254218788</v>
+        <v>327.7619254218789</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0092538734576</v>
+        <v>348.1627241899068</v>
       </c>
       <c r="F11" t="n">
         <v>379.9549295429073</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0006094546493</v>
+        <v>384.0006094546494</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6866481885163</v>
+        <v>267.6866481885164</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.65581357412188</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26664558937168</v>
+        <v>82.26664558937175</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9968539408161</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0740557600978</v>
+        <v>224.0740557600979</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>322.3198525186089</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8099844796649</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3168224572495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>114.8027164164479</v>
+        <v>152.9108639831332</v>
       </c>
       <c r="C13" t="n">
         <v>140.3257048998237</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6943568194083</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.4999318241271</v>
+        <v>30.45592099030114</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1046920602241</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>117.8338987155167</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43130421103396</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01103647124319</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>162.8479091326378</v>
@@ -1591,7 +1591,7 @@
         <v>259.6018821377869</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>198.7885391902331</v>
       </c>
       <c r="Y13" t="n">
         <v>191.6635371532907</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8127254646764</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>338.3517755722035</v>
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0092538734576</v>
+        <v>355.0092538734577</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9549295429073</v>
+        <v>379.9549295429074</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0006094546493</v>
+        <v>384.0006094546494</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6866481885163</v>
+        <v>267.6866481885164</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65581357412191</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26664558937179</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9968539408161</v>
       </c>
       <c r="U14" t="n">
-        <v>121.2401665732841</v>
+        <v>224.0740557600979</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8311422713309</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3198525186089</v>
+        <v>0.5482334208301154</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8099844796649</v>
+        <v>342.809984479665</v>
       </c>
       <c r="Y14" t="n">
         <v>359.3168224572495</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>64.40891825665859</v>
+        <v>140.3257048998238</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6943568194082</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.512846447765</v>
+        <v>34.51410905034057</v>
       </c>
       <c r="F16" t="n">
-        <v>118.4999318241271</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1046920602241</v>
+        <v>139.1046920602242</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8338987155167</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43130421103405</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01103647124329</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8479091326378</v>
+        <v>162.8479091326379</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6278330773651</v>
+        <v>192.6278330773652</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2907220068087</v>
+        <v>259.2907220068088</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2165271250239</v>
+        <v>225.216527125024</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6018821377869</v>
+        <v>259.601882137787</v>
       </c>
       <c r="X16" t="n">
-        <v>198.788539190233</v>
+        <v>198.7885391902331</v>
       </c>
       <c r="Y16" t="n">
         <v>191.6635371532907</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8375888460839</v>
+        <v>308.8375888460838</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3766389536109</v>
+        <v>291.3766389536108</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7867888032863</v>
+        <v>280.7867888032862</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0341172548651</v>
+        <v>308.034117254865</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9797929243148</v>
+        <v>332.9797929243147</v>
       </c>
       <c r="G17" t="n">
-        <v>3.986929086141638</v>
+        <v>337.0254728360567</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7115115699238</v>
+        <v>220.7115115699237</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29150897077915</v>
+        <v>35.29150897077903</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0217173222235</v>
+        <v>130.0217173222234</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0989191415053</v>
+        <v>177.0989191415052</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8560056527382</v>
+        <v>253.8560056527381</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3447159000164</v>
+        <v>238.141020011175</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8348478610724</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3416858386569</v>
+        <v>312.3416858386568</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9357273645406</v>
+        <v>105.9357273645405</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35056828123116</v>
+        <v>93.35056828123105</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71922020081568</v>
+        <v>74.71922020081557</v>
       </c>
       <c r="E19" t="n">
-        <v>72.5377098291725</v>
+        <v>72.53770982917239</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52479520553457</v>
+        <v>133.9400031873418</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12955544163155</v>
+        <v>92.12955544163144</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85876209692411</v>
+        <v>70.858762096924</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45616759244142</v>
+        <v>22.45616759244131</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>77.45110783445631</v>
+        <v>15.03589985265054</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8727725140452</v>
+        <v>115.8727725140451</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6526964587725</v>
+        <v>145.6526964587724</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3155853882162</v>
+        <v>212.3155853882161</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2413905064313</v>
+        <v>178.2413905064312</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6267455191943</v>
+        <v>212.6267455191942</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8134025716405</v>
+        <v>151.8134025716404</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6884005346981</v>
+        <v>144.688400534698</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8375888460839</v>
+        <v>308.8375888460838</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3766389536109</v>
+        <v>291.3766389536108</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7867888032863</v>
+        <v>280.7867888032862</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0341172548651</v>
+        <v>308.034117254865</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9797929243148</v>
+        <v>332.9797929243147</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0254728360568</v>
+        <v>279.3316449861591</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7115115699238</v>
+        <v>220.7115115699237</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29150897077915</v>
+        <v>35.29150897077905</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0217173222235</v>
+        <v>130.0217173222234</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>177.0989191415052</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8560056527382</v>
+        <v>253.8560056527381</v>
       </c>
       <c r="W20" t="n">
-        <v>119.4050912916059</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8348478610724</v>
+        <v>295.8348478610723</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3416858386569</v>
+        <v>312.3416858386568</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9357273645406</v>
+        <v>105.9357273645405</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35056828123116</v>
+        <v>93.35056828123105</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71922020081568</v>
+        <v>74.71922020081557</v>
       </c>
       <c r="E22" t="n">
-        <v>134.9529178109777</v>
+        <v>72.53770982917239</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52479520553457</v>
+        <v>71.52479520553446</v>
       </c>
       <c r="G22" t="n">
-        <v>92.12955544163155</v>
+        <v>92.12955544163144</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85876209692411</v>
+        <v>70.858762096924</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45616759244142</v>
+        <v>22.45616759244131</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03589985265066</v>
+        <v>15.03589985265054</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8727725140452</v>
+        <v>115.8727725140451</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6526964587725</v>
+        <v>145.6526964587724</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3155853882162</v>
+        <v>212.3155853882161</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2413905064313</v>
+        <v>178.2413905064312</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6267455191943</v>
+        <v>275.0419535010016</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8134025716405</v>
+        <v>151.8134025716404</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6884005346981</v>
+        <v>144.688400534698</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29150897077916</v>
+        <v>35.29150897077918</v>
       </c>
       <c r="T23" t="n">
         <v>130.0217173222235</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>105.9357273645406</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35056828123116</v>
+        <v>93.35056828123118</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71922020081568</v>
+        <v>74.7192202008157</v>
       </c>
       <c r="E25" t="n">
-        <v>72.5377098291725</v>
+        <v>72.53770982917251</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52479520553457</v>
+        <v>71.52479520553459</v>
       </c>
       <c r="G25" t="n">
-        <v>92.12955544163155</v>
+        <v>92.12955544163157</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85876209692411</v>
+        <v>70.85876209692412</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45616759244142</v>
+        <v>22.45616759244144</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>77.45110783445631</v>
+        <v>15.03589985265067</v>
       </c>
       <c r="S25" t="n">
         <v>115.8727725140452</v>
@@ -2542,7 +2542,7 @@
         <v>151.8134025716405</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6884005346981</v>
+        <v>207.1036085165033</v>
       </c>
     </row>
     <row r="26">
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
         <v>172.5738126575766</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3032,19 +3032,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,13 +3089,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.2628020374617</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
         <v>172.5738126575766</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448882</v>
       </c>
       <c r="C35" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524152</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020906</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536694</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231189</v>
+        <v>359.900909123119</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348611</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687281</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958348</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403096</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515426</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988206</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598766</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374613</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633449</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800355</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996198</v>
+        <v>101.64033639962</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797681</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433889</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404359</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572842</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124574</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145497</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128495</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575768</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870205</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052356</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179986</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704448</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335024</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C38" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F38" t="n">
         <v>359.9009091231189</v>
@@ -3518,7 +3518,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3560,7 +3560,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W38" t="n">
         <v>302.2658320988205</v>
@@ -3569,7 +3569,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C41" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F41" t="n">
         <v>359.9009091231189</v>
@@ -3755,7 +3755,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958336</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W41" t="n">
         <v>302.2658320988205</v>
@@ -3806,7 +3806,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797668</v>
       </c>
       <c r="F43" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433876</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957283</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124561</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2140.012259920681</v>
+        <v>1806.13095519176</v>
       </c>
       <c r="C11" t="n">
-        <v>1798.242789645728</v>
+        <v>1806.13095519176</v>
       </c>
       <c r="D11" t="n">
-        <v>1467.170137704436</v>
+        <v>1475.058303250468</v>
       </c>
       <c r="E11" t="n">
-        <v>1108.574931771651</v>
+        <v>1123.378783866724</v>
       </c>
       <c r="F11" t="n">
-        <v>724.7820736475021</v>
+        <v>739.5859257425748</v>
       </c>
       <c r="G11" t="n">
-        <v>336.9026701579575</v>
+        <v>351.70652225303</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>81.31596852725602</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.508199801726</v>
+        <v>3242.508199801724</v>
       </c>
       <c r="T11" t="n">
-        <v>3242.508199801726</v>
+        <v>3063.723498851404</v>
       </c>
       <c r="U11" t="n">
-        <v>3016.170769741022</v>
+        <v>2837.386068790699</v>
       </c>
       <c r="V11" t="n">
-        <v>3016.170769741022</v>
+        <v>2837.386068790699</v>
       </c>
       <c r="W11" t="n">
-        <v>2690.595161136366</v>
+        <v>2511.810460186044</v>
       </c>
       <c r="X11" t="n">
-        <v>2690.595161136366</v>
+        <v>2165.537748590423</v>
       </c>
       <c r="Y11" t="n">
-        <v>2327.648875826013</v>
+        <v>2165.537748590423</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228005</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5139,7 +5139,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125857</v>
@@ -5148,16 +5148,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>657.618714119785</v>
+        <v>480.9665421140519</v>
       </c>
       <c r="C13" t="n">
-        <v>515.8755778573368</v>
+        <v>339.2234058516037</v>
       </c>
       <c r="D13" t="n">
-        <v>515.8755778573368</v>
+        <v>216.2998131047266</v>
       </c>
       <c r="E13" t="n">
-        <v>515.8755778573368</v>
+        <v>216.2998131047266</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1786770248852</v>
+        <v>185.5362565488669</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6688870650628</v>
+        <v>185.5362565488669</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6447469483793</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2866539159351</v>
+        <v>138.286653915935</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9257419016276</v>
+        <v>368.9257419016274</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1374453869398</v>
+        <v>712.1374453869396</v>
       </c>
       <c r="M13" t="n">
-        <v>1082.946396023305</v>
+        <v>1082.946396023304</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.006677765986</v>
+        <v>1451.006677765985</v>
       </c>
       <c r="O13" t="n">
         <v>1776.988181723215</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.247587193691</v>
+        <v>2036.24758719369</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.509788383022</v>
+        <v>2140.50978838302</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.872377806008</v>
+        <v>2140.50978838302</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.379540298293</v>
+        <v>1976.016950875306</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.805971533278</v>
+        <v>1781.44338211029</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.896151324381</v>
+        <v>1519.533561901393</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.404709783952</v>
+        <v>1292.042120360965</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1805864124502</v>
+        <v>1029.817996989463</v>
       </c>
       <c r="X13" t="n">
-        <v>967.1805864124502</v>
+        <v>829.0214927569043</v>
       </c>
       <c r="Y13" t="n">
-        <v>773.5810539343788</v>
+        <v>635.4219602788329</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1808.93960797939</v>
+        <v>1823.743460074462</v>
       </c>
       <c r="C14" t="n">
-        <v>1467.170137704437</v>
+        <v>1481.97398979951</v>
       </c>
       <c r="D14" t="n">
-        <v>1467.170137704437</v>
+        <v>1481.97398979951</v>
       </c>
       <c r="E14" t="n">
-        <v>1108.574931771651</v>
+        <v>1123.378783866724</v>
       </c>
       <c r="F14" t="n">
-        <v>724.7820736475022</v>
+        <v>739.5859257425752</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9026701579576</v>
+        <v>351.7065222530304</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>81.31596852725608</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218343</v>
@@ -5279,13 +5279,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.508199801725</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3063.723498851406</v>
       </c>
       <c r="U14" t="n">
-        <v>3203.141006888682</v>
+        <v>2837.386068790701</v>
       </c>
       <c r="V14" t="n">
-        <v>3203.141006888682</v>
+        <v>2533.516228112589</v>
       </c>
       <c r="W14" t="n">
-        <v>2877.565398284027</v>
+        <v>2532.962456980437</v>
       </c>
       <c r="X14" t="n">
-        <v>2531.292686688405</v>
+        <v>2186.689745384816</v>
       </c>
       <c r="Y14" t="n">
-        <v>2168.346401378053</v>
+        <v>1823.743460074462</v>
       </c>
     </row>
     <row r="15">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>635.4219602788329</v>
+        <v>572.7845497018186</v>
       </c>
       <c r="C16" t="n">
-        <v>570.3624468882688</v>
+        <v>431.0414134393709</v>
       </c>
       <c r="D16" t="n">
-        <v>447.4388541413917</v>
+        <v>431.0414134393709</v>
       </c>
       <c r="E16" t="n">
-        <v>326.7188072244574</v>
+        <v>396.1786770248855</v>
       </c>
       <c r="F16" t="n">
-        <v>207.0219063920058</v>
+        <v>396.1786770248855</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>255.668887065063</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>136.6447469483794</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2866539159351</v>
+        <v>138.286653915935</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9257419016275</v>
+        <v>368.9257419016274</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1374453869397</v>
+        <v>712.1374453869396</v>
       </c>
       <c r="M16" t="n">
         <v>1082.946396023305</v>
@@ -5458,28 +5458,28 @@
         <v>2140.509788383021</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.509788383021</v>
+        <v>2077.872377806007</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.016950875306</v>
+        <v>1913.379540298292</v>
       </c>
       <c r="T16" t="n">
-        <v>1781.443382110291</v>
+        <v>1718.805971533277</v>
       </c>
       <c r="U16" t="n">
-        <v>1519.533561901393</v>
+        <v>1456.896151324379</v>
       </c>
       <c r="V16" t="n">
-        <v>1292.042120360965</v>
+        <v>1229.404709783951</v>
       </c>
       <c r="W16" t="n">
-        <v>1029.817996989463</v>
+        <v>967.1805864124487</v>
       </c>
       <c r="X16" t="n">
-        <v>829.0214927569043</v>
+        <v>766.38408217989</v>
       </c>
       <c r="Y16" t="n">
-        <v>635.4219602788329</v>
+        <v>572.7845497018186</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1518.911892787883</v>
+        <v>1855.314462232241</v>
       </c>
       <c r="C17" t="n">
-        <v>1224.592055461003</v>
+        <v>1560.994624905361</v>
       </c>
       <c r="D17" t="n">
-        <v>940.9690364677849</v>
+        <v>1277.371605912143</v>
       </c>
       <c r="E17" t="n">
-        <v>629.8234634830726</v>
+        <v>966.2260329274309</v>
       </c>
       <c r="F17" t="n">
-        <v>293.480238306997</v>
+        <v>629.8828077513555</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4530372098843</v>
+        <v>289.4530372098841</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218343</v>
@@ -5513,25 +5513,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052369</v>
@@ -5540,7 +5540,7 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.957832749798</v>
+        <v>3289.957832749799</v>
       </c>
       <c r="T17" t="n">
         <v>3158.622764747553</v>
@@ -5552,13 +5552,13 @@
         <v>2723.314759904883</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.1887842483</v>
+        <v>2482.76827504511</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.365705600752</v>
+        <v>2482.76827504511</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.869053238473</v>
+        <v>2167.271622682831</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
@@ -5592,13 +5592,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1149231470835</v>
+        <v>632.1605877751709</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8214198327086</v>
+        <v>537.8670844607961</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3474600339048</v>
+        <v>462.3931246619925</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0770460650437</v>
+        <v>389.1227106931315</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8297781806654</v>
+        <v>253.829778180665</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7696211689163</v>
+        <v>160.7696211689161</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19511400030609</v>
+        <v>89.19511400030598</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5695,28 +5695,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1849.061105831466</v>
+        <v>1912.106770459553</v>
       </c>
       <c r="S19" t="n">
-        <v>1732.017901271824</v>
+        <v>1795.063565899911</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.893965454883</v>
+        <v>1647.939630082969</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.433778194058</v>
+        <v>1433.479442822145</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.391969601703</v>
+        <v>1253.43763422979</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6174791782747</v>
+        <v>1038.663143806362</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2706078937894</v>
+        <v>885.3162725218766</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1207083637912</v>
+        <v>739.1663729918786</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.314462232242</v>
+        <v>1797.037868444466</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.994624905363</v>
+        <v>1502.718031117586</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.371605912144</v>
+        <v>1219.095012124368</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2260329274318</v>
+        <v>907.9494391396556</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8828077513563</v>
+        <v>571.6062139635801</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4530372098843</v>
+        <v>289.4530372098841</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5750,22 +5750,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296687</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.957832749798</v>
+        <v>3289.957832749799</v>
       </c>
       <c r="T20" t="n">
         <v>3158.622764747553</v>
       </c>
       <c r="U20" t="n">
-        <v>3158.622764747553</v>
+        <v>2979.734967634921</v>
       </c>
       <c r="V20" t="n">
-        <v>2902.202557017514</v>
+        <v>2723.314759904883</v>
       </c>
       <c r="W20" t="n">
-        <v>2781.59135369266</v>
+        <v>2723.314759904883</v>
       </c>
       <c r="X20" t="n">
-        <v>2482.768275045112</v>
+        <v>2424.491681257335</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.271622682832</v>
+        <v>2108.995028895055</v>
       </c>
     </row>
     <row r="21">
@@ -5805,70 +5805,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1605877751695</v>
+        <v>569.1149231470827</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8670844607946</v>
+        <v>474.8214198327079</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3931246619908</v>
+        <v>399.3474600339043</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0770460650437</v>
+        <v>326.0770460650432</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8297781806654</v>
+        <v>253.829778180665</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7696211689163</v>
+        <v>160.7696211689161</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19511400030609</v>
+        <v>89.19511400030598</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
@@ -5941,19 +5941,19 @@
         <v>1647.939630082969</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.479442822144</v>
+        <v>1433.479442822145</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.437634229789</v>
+        <v>1253.43763422979</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.663143806361</v>
+        <v>975.6174791782736</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3162725218754</v>
+        <v>822.2706078937883</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1663729918772</v>
+        <v>676.1207083637903</v>
       </c>
     </row>
     <row r="23">
@@ -5996,16 +5996,16 @@
         <v>1047.110192889553</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.044667005838</v>
+        <v>1580.642097561478</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.82348406462</v>
+        <v>2127.42091462026</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.795954943957</v>
+        <v>2630.393385499597</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.570321301135</v>
+        <v>3151.378480547829</v>
       </c>
       <c r="Q23" t="n">
         <v>3609.856683056817</v>
@@ -6023,7 +6023,7 @@
         <v>3323.002895639369</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.582687909331</v>
+        <v>3066.58268790933</v>
       </c>
       <c r="W23" t="n">
         <v>2788.456712252748</v>
@@ -6032,7 +6032,7 @@
         <v>2489.6336336052</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.136981242921</v>
+        <v>2174.13698124292</v>
       </c>
     </row>
     <row r="24">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9802817071725</v>
+        <v>575.9802817071726</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6867783927975</v>
+        <v>481.6867783927977</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2128185939938</v>
+        <v>406.2128185939939</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9424046251327</v>
+        <v>332.9424046251328</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6951367407543</v>
+        <v>260.6951367407544</v>
       </c>
       <c r="G25" t="n">
         <v>167.6349797290053</v>
@@ -6169,28 +6169,28 @@
         <v>1934.159906648582</v>
       </c>
       <c r="R25" t="n">
-        <v>1855.926464391555</v>
+        <v>1918.972129019642</v>
       </c>
       <c r="S25" t="n">
-        <v>1738.883259831914</v>
+        <v>1801.92892446</v>
       </c>
       <c r="T25" t="n">
-        <v>1591.759324014972</v>
+        <v>1654.804988643058</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.299136754147</v>
+        <v>1440.344801382234</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.257328161792</v>
+        <v>1260.302992789879</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4828377383637</v>
+        <v>1045.52850236645</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1359664538784</v>
+        <v>892.1816310819645</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9860669238802</v>
+        <v>682.9860669238803</v>
       </c>
     </row>
     <row r="26">
@@ -6200,64 +6200,64 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E26" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>282.5873354070228</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>937.3106675423223</v>
       </c>
       <c r="L26" t="n">
-        <v>1326.966459396847</v>
+        <v>1388.344880790731</v>
       </c>
       <c r="M26" t="n">
-        <v>2305.516762226676</v>
+        <v>1921.876785462656</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285458</v>
+        <v>2468.655602521438</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>2971.628073400775</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468334</v>
@@ -6266,10 +6266,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456147</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644877</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032365</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.553760997781</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
-        <v>327.019203024666</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572846</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6318,25 +6318,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
-        <v>2111.547193875145</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351248</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590363</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083843</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T27" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U27" t="n">
-        <v>2029.395255896114</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
         <v>1794.243147664371</v>
@@ -6345,10 +6345,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730637</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="28">
@@ -6364,28 +6364,28 @@
         <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
         <v>786.3326864982171</v>
@@ -6403,10 +6403,10 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
         <v>2127.355355052752</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689502</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F29" t="n">
-        <v>698.90370154678</v>
+        <v>698.9037015467811</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760677</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L29" t="n">
-        <v>1468.364237198916</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.89614187084</v>
+        <v>2076.721146931701</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285459</v>
+        <v>2623.499963990483</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164796</v>
+        <v>3126.47243486982</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521974</v>
+        <v>3521.246801226998</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3979.725003735986</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.34584483446</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309628</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641924</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468336</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146295</v>
       </c>
       <c r="X29" t="n">
         <v>2714.947448833288</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
         <v>423.2675027973143</v>
@@ -6640,16 +6640,16 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689502</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467811</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.280884339851</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689669149</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>733.7666241029201</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1184.800837351329</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623799</v>
+        <v>1718.332742023254</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285459</v>
+        <v>2265.111559082036</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3145.076209411491</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3539.850575768669</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.34584483446</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309628</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468336</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146295</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="33">
@@ -6774,10 +6774,10 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
         <v>413.0883853676538</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
         <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6877,16 +6877,16 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398489</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668921</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668921</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>437.4316968760677</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659141</v>
+        <v>878.8992091819741</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1329.933422430383</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486248</v>
+        <v>1863.465327102308</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.59600554503</v>
+        <v>2410.24414416109</v>
       </c>
       <c r="O35" t="n">
-        <v>2805.568476424367</v>
+        <v>3290.208794490545</v>
       </c>
       <c r="P35" t="n">
-        <v>3518.923563871313</v>
+        <v>3684.983160847723</v>
       </c>
       <c r="Q35" t="n">
-        <v>3977.401766380301</v>
+        <v>3933.269522603405</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.34584483446</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309628</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641924</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863834</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468336</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146295</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7011,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668921</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873066</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698015</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899676</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257042</v>
+        <v>549.947493825705</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913844</v>
+        <v>449.484033191385</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415478</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643399</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302708</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668921</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973144</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481268</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167333</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572255</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277856</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052755</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570354</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644071</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386257</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297369</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347425</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519681</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
         <v>1711.594658697161</v>
@@ -7160,52 +7160,52 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>393.2994530991692</v>
+        <v>393.2994530991701</v>
       </c>
       <c r="K38" t="n">
-        <v>727.1188267890157</v>
+        <v>727.1188267890166</v>
       </c>
       <c r="L38" t="n">
-        <v>1178.153040037424</v>
+        <v>1178.153040037425</v>
       </c>
       <c r="M38" t="n">
-        <v>1711.684944709349</v>
+        <v>1711.68494470935</v>
       </c>
       <c r="N38" t="n">
-        <v>2258.463761768131</v>
+        <v>2258.463761768132</v>
       </c>
       <c r="O38" t="n">
-        <v>2761.436232647468</v>
+        <v>2761.436232647469</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094414</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
         <v>3346.282596468334</v>
@@ -7214,7 +7214,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
         <v>2372.257749805548</v>
@@ -7248,16 +7248,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L39" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G40" t="n">
         <v>229.7905149643395</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960313</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973152</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498218</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V40" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J41" t="n">
         <v>437.4316968760676</v>
@@ -7427,34 +7427,34 @@
         <v>2805.568476424367</v>
       </c>
       <c r="P41" t="n">
-        <v>3474.791320094414</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J42" t="n">
         <v>174.8241863873065</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415474</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J43" t="n">
         <v>172.7749345960313</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519672</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467804</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
@@ -7649,25 +7649,25 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>792.1780824632697</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L44" t="n">
-        <v>1243.212295711679</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M44" t="n">
-        <v>1776.744200383603</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N44" t="n">
-        <v>2323.523017442385</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O44" t="n">
-        <v>2826.495488321722</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P44" t="n">
-        <v>3539.850575768668</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834459</v>
@@ -7682,16 +7682,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="45">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
@@ -7810,10 +7810,10 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -7834,7 +7834,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644068</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
   </sheetData>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>164.4450187886097</v>
+        <v>164.4450187886098</v>
       </c>
       <c r="K8" t="n">
         <v>195.2094266592918</v>
@@ -8547,7 +8547,7 @@
         <v>117.6967333951453</v>
       </c>
       <c r="P9" t="n">
-        <v>113.990354617597</v>
+        <v>113.9903546175971</v>
       </c>
       <c r="Q9" t="n">
         <v>126.6229640213396</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>339.8005751963233</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>127.4855845364183</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>12.68816924374568</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>274.8351763665428</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>306.6874953089251</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>18.791691456233</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,25 +10349,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>131.2335379367262</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>274.835176366543</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>108.7354935515757</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>21.13839585591369</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5185911550046</v>
+        <v>124.5185911550055</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>277.2206841544135</v>
+        <v>277.2206841544144</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>21.13839585591472</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>277.2206841544144</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>170.0524757183982</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3517755722035</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.846529683550898</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65581357412179</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.996853940816</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8099844796649</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>359.3168224572495</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.10814756668528</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6943568194082</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.512846447765</v>
+        <v>119.5128464477651</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>88.04401083382601</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1046920602241</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43130421103402</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01103647124325</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>198.788539190233</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8127254646765</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7619254218788</v>
+        <v>327.7619254218789</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65581357412182</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26664558937185</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.996853940816</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>102.8338891868137</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8311422713308</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>321.7716190977789</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9108639831332</v>
+        <v>152.9108639831333</v>
       </c>
       <c r="C16" t="n">
-        <v>75.91678664316511</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6943568194083</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>84.99873739742455</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.4999318241272</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8338987155167</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43130421103396</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.0110364712432</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>333.0385437499152</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23792,10 +23792,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>37.2036958888412</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>295.8348478610723</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>57.69382784989762</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24023,13 +24023,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0989191415053</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>155.9396246084104</v>
+        <v>275.3447159000162</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26320,7 +26320,7 @@
         <v>307234.4655312597</v>
       </c>
       <c r="E2" t="n">
-        <v>273578.1425298571</v>
+        <v>273578.142529857</v>
       </c>
       <c r="F2" t="n">
         <v>273578.1425298571</v>
@@ -26329,31 +26329,31 @@
         <v>297949.4631681715</v>
       </c>
       <c r="H2" t="n">
-        <v>297949.4631681713</v>
+        <v>297949.4631681714</v>
       </c>
       <c r="I2" t="n">
         <v>307890.6636991065</v>
       </c>
       <c r="J2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="K2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="L2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991067</v>
       </c>
       <c r="M2" t="n">
         <v>307890.6636991064</v>
       </c>
       <c r="N2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="O2" t="n">
         <v>307890.6636991063</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991064</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>38521.85015936186</v>
+        <v>38521.85015936181</v>
       </c>
       <c r="E3" t="n">
         <v>1106215.961015504</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.702329311432549e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487419</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.53767071774</v>
+        <v>22820.53767071761</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.34822049024</v>
+        <v>25410.34822049027</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487422</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.568292073</v>
+        <v>207188.5682920728</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>422862.8573343062</v>
       </c>
       <c r="E4" t="n">
-        <v>38195.30988554742</v>
+        <v>38195.30988554739</v>
       </c>
       <c r="F4" t="n">
-        <v>38195.30988554743</v>
+        <v>38195.30988554734</v>
       </c>
       <c r="G4" t="n">
-        <v>75223.10714400178</v>
+        <v>75223.10714400189</v>
       </c>
       <c r="H4" t="n">
-        <v>75223.1071440018</v>
+        <v>75223.10714400187</v>
       </c>
       <c r="I4" t="n">
         <v>86759.13279157184</v>
       </c>
       <c r="J4" t="n">
+        <v>82806.76150409842</v>
+      </c>
+      <c r="K4" t="n">
+        <v>82806.76150409844</v>
+      </c>
+      <c r="L4" t="n">
+        <v>82806.76150409838</v>
+      </c>
+      <c r="M4" t="n">
+        <v>82806.76150409835</v>
+      </c>
+      <c r="N4" t="n">
         <v>82806.76150409839</v>
-      </c>
-      <c r="K4" t="n">
-        <v>82806.76150409842</v>
-      </c>
-      <c r="L4" t="n">
-        <v>82806.76150409837</v>
-      </c>
-      <c r="M4" t="n">
-        <v>82806.76150409838</v>
-      </c>
-      <c r="N4" t="n">
-        <v>82806.76150409837</v>
       </c>
       <c r="O4" t="n">
         <v>82806.76150409837</v>
       </c>
       <c r="P4" t="n">
-        <v>82806.76150409842</v>
+        <v>82806.76150409841</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>34688.26308058916</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.57187911059</v>
+        <v>76569.57187911053</v>
       </c>
       <c r="F5" t="n">
         <v>76569.57187911056</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.72463949902</v>
+        <v>80518.72463949904</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.72463949902</v>
+        <v>80518.72463949904</v>
       </c>
       <c r="I5" t="n">
         <v>85736.39714516664</v>
@@ -26494,13 +26494,13 @@
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480615</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480615</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480615</v>
       </c>
       <c r="N5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-162672.8527003587</v>
+        <v>-162677.2662782268</v>
       </c>
       <c r="C6" t="n">
-        <v>-165065.0901796171</v>
+        <v>-165069.5008183949</v>
       </c>
       <c r="D6" t="n">
-        <v>-188838.5050429975</v>
+        <v>-188842.8796974498</v>
       </c>
       <c r="E6" t="n">
-        <v>-947402.700250305</v>
+        <v>-947631.4503914331</v>
       </c>
       <c r="F6" t="n">
-        <v>158813.2607651991</v>
+        <v>158584.5106240706</v>
       </c>
       <c r="G6" t="n">
-        <v>104627.5220897967</v>
+        <v>104561.2474195902</v>
       </c>
       <c r="H6" t="n">
-        <v>142207.6313846704</v>
+        <v>142141.3567144643</v>
       </c>
       <c r="I6" t="n">
-        <v>112574.5960916503</v>
+        <v>112574.5960916504</v>
       </c>
       <c r="J6" t="n">
-        <v>110295.6122997114</v>
+        <v>110295.6122997116</v>
       </c>
       <c r="K6" t="n">
+        <v>135705.9605202018</v>
+      </c>
+      <c r="L6" t="n">
+        <v>98125.8512253279</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-71482.6077718709</v>
+      </c>
+      <c r="N6" t="n">
         <v>135705.9605202019</v>
-      </c>
-      <c r="L6" t="n">
-        <v>98125.85122532782</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-71482.60777187107</v>
-      </c>
-      <c r="N6" t="n">
-        <v>135705.9605202018</v>
       </c>
       <c r="O6" t="n">
         <v>135705.9605202018</v>
       </c>
       <c r="P6" t="n">
-        <v>135705.9605202017</v>
+        <v>135705.9605202019</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="K2" t="n">
         <v>46.97513661859254</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.97513661859236</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.97513661859251</v>
+      </c>
+      <c r="O2" t="n">
+        <v>46.97513661859249</v>
+      </c>
+      <c r="P2" t="n">
         <v>46.97513661859256</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859255</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>48.65426975179655</v>
+        <v>48.6542697517965</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
@@ -26820,13 +26820,13 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="P4" t="n">
         <v>1014.336461208615</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859274</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859278</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>44.98040685855423</v>
+        <v>44.98040685855418</v>
       </c>
       <c r="E3" t="n">
         <v>1041.122430841502</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>85.81698200111214</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11802380520953</v>
+        <v>97.11802380520965</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859274</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.66019412805414</v>
+        <v>93.66019412805416</v>
       </c>
       <c r="S9" t="n">
         <v>169.7392953264901</v>
@@ -28035,7 +28035,7 @@
         <v>87.15615952880849</v>
       </c>
       <c r="K10" t="n">
-        <v>12.07602350739171</v>
+        <v>12.07602350739172</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880409</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880404</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89625281739667</v>
+        <v>11.48104483558942</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.48104483559102</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="E22" t="n">
-        <v>11.48104483559152</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89625281739667</v>
+        <v>11.48104483558944</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739679</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>11.48104483559102</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89625281739667</v>
+        <v>11.48104483559149</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292363</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859188</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859711</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859236</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859344</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859369</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1955950542785789</v>
+        <v>0.1955950542785787</v>
       </c>
       <c r="H8" t="n">
-        <v>2.003137849630497</v>
+        <v>2.003137849630495</v>
       </c>
       <c r="I8" t="n">
-        <v>7.540678330074922</v>
+        <v>7.540678330074914</v>
       </c>
       <c r="J8" t="n">
-        <v>16.60088573807655</v>
+        <v>16.60088573807654</v>
       </c>
       <c r="K8" t="n">
-        <v>24.8804243856888</v>
+        <v>24.88042438568878</v>
       </c>
       <c r="L8" t="n">
-        <v>30.86636652806687</v>
+        <v>30.86636652806684</v>
       </c>
       <c r="M8" t="n">
-        <v>34.34478007459355</v>
+        <v>34.34478007459352</v>
       </c>
       <c r="N8" t="n">
-        <v>34.90051452256257</v>
+        <v>34.90051452256253</v>
       </c>
       <c r="O8" t="n">
-        <v>32.95556620157994</v>
+        <v>32.95556620157991</v>
       </c>
       <c r="P8" t="n">
-        <v>28.12681329907752</v>
+        <v>28.12681329907749</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.12206541772591</v>
+        <v>21.12206541772589</v>
       </c>
       <c r="R8" t="n">
-        <v>12.28654782832679</v>
+        <v>12.28654782832678</v>
       </c>
       <c r="S8" t="n">
-        <v>4.457122299373122</v>
+        <v>4.457122299373117</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8562173501044797</v>
+        <v>0.8562173501044789</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01564760434228631</v>
+        <v>0.0156476043422863</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1046525802208454</v>
+        <v>0.1046525802208453</v>
       </c>
       <c r="H9" t="n">
-        <v>1.010723603711849</v>
+        <v>1.010723603711848</v>
       </c>
       <c r="I9" t="n">
-        <v>3.603169976901915</v>
+        <v>3.603169976901911</v>
       </c>
       <c r="J9" t="n">
-        <v>9.88737381814575</v>
+        <v>9.887373818145742</v>
       </c>
       <c r="K9" t="n">
-        <v>16.89909669294239</v>
+        <v>16.89909669294238</v>
       </c>
       <c r="L9" t="n">
-        <v>22.72292098172348</v>
+        <v>22.72292098172345</v>
       </c>
       <c r="M9" t="n">
-        <v>26.51657701472912</v>
+        <v>26.51657701472909</v>
       </c>
       <c r="N9" t="n">
-        <v>27.21839190577154</v>
+        <v>27.21839190577152</v>
       </c>
       <c r="O9" t="n">
-        <v>24.89951104929913</v>
+        <v>24.8995110492991</v>
       </c>
       <c r="P9" t="n">
-        <v>19.98405279673319</v>
+        <v>19.98405279673317</v>
       </c>
       <c r="Q9" t="n">
-        <v>13.35881006468195</v>
+        <v>13.35881006468194</v>
       </c>
       <c r="R9" t="n">
-        <v>6.497640024588983</v>
+        <v>6.497640024588977</v>
       </c>
       <c r="S9" t="n">
-        <v>1.943875777347719</v>
+        <v>1.943875777347717</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4218233386971794</v>
+        <v>0.4218233386971789</v>
       </c>
       <c r="U9" t="n">
-        <v>0.006885038172424043</v>
+        <v>0.006885038172424036</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0877372077491413</v>
+        <v>0.08773720774914122</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7800635379878206</v>
+        <v>0.7800635379878198</v>
       </c>
       <c r="I10" t="n">
-        <v>2.638497120310541</v>
+        <v>2.638497120310539</v>
       </c>
       <c r="J10" t="n">
-        <v>6.20302058786429</v>
+        <v>6.203020587864284</v>
       </c>
       <c r="K10" t="n">
-        <v>10.19346831849114</v>
+        <v>10.19346831849113</v>
       </c>
       <c r="L10" t="n">
-        <v>13.0441299593587</v>
+        <v>13.04412995935869</v>
       </c>
       <c r="M10" t="n">
-        <v>13.75320612016767</v>
+        <v>13.75320612016765</v>
       </c>
       <c r="N10" t="n">
-        <v>13.42618561855724</v>
+        <v>13.42618561855723</v>
       </c>
       <c r="O10" t="n">
-        <v>12.40125550985136</v>
+        <v>12.40125550985135</v>
       </c>
       <c r="P10" t="n">
-        <v>10.61141647176887</v>
+        <v>10.61141647176886</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.346794732521278</v>
+        <v>7.346794732521271</v>
       </c>
       <c r="R10" t="n">
-        <v>3.944983904793207</v>
+        <v>3.944983904793203</v>
       </c>
       <c r="S10" t="n">
-        <v>1.529020247773671</v>
+        <v>1.52902024777367</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3748771603826946</v>
+        <v>0.3748771603826942</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004785665877225895</v>
+        <v>0.00478566587722589</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -33026,7 +33026,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33497,10 +33497,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49953281187038</v>
+        <v>72.4995328118703</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9687757431238</v>
+        <v>232.9687757431236</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6784883690023</v>
+        <v>346.6784883690021</v>
       </c>
       <c r="M13" t="n">
-        <v>374.554495592288</v>
+        <v>374.5544955922879</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7780623663443</v>
+        <v>371.7780623663441</v>
       </c>
       <c r="O13" t="n">
-        <v>329.274246421444</v>
+        <v>329.2742464214438</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8781873439146</v>
+        <v>261.8781873439145</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3153547366978</v>
+        <v>105.3153547366977</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49953281187035</v>
+        <v>72.49953281187027</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9687757431237</v>
+        <v>232.9687757431236</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6784883690023</v>
+        <v>346.6784883690021</v>
       </c>
       <c r="M16" t="n">
         <v>374.5544955922879</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7780623663442</v>
+        <v>371.7780623663441</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2742464214439</v>
+        <v>329.2742464214438</v>
       </c>
       <c r="P16" t="n">
         <v>261.8781873439145</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3153547366978</v>
+        <v>105.3153547366977</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36364,7 +36364,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>878.72169102655</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36373,10 +36373,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>526.2475707557902</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>203.4751702124582</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>730.425290758875</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
@@ -36610,13 +36610,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>858.9893307218366</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
@@ -36850,10 +36850,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>78.40488999845778</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-2.325412589760328e-12</v>
       </c>
       <c r="J32" t="n">
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>468.4248244921267</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>827.1370117794545</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359772</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37306,7 +37306,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>445.9267801069762</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37318,16 +37318,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>80.75159439813847</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165858</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629119</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887905</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120762</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861324</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412369</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637028</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564862</v>
+        <v>125.369375156486</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>315.3055921237172</v>
+        <v>315.3055921237181</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37622,7 +37622,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162913</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
@@ -37716,7 +37716,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37795,7 +37795,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>675.9826703737854</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165871</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412335</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>358.3296824113152</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38029,16 +38029,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>785.2736850426335</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
